--- a/tests/milvustest/src/test/java/resources/milvus-java-sdk-TestCase.xlsx
+++ b/tests/milvustest/src/test/java/resources/milvus-java-sdk-TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="350">
   <si>
     <t>模块</t>
   </si>
@@ -32,6 +32,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>search with invaild params</t>
+  </si>
+  <si>
     <t>Search/SearchAsync</t>
   </si>
   <si>
@@ -44,15 +47,27 @@
     <t>Y</t>
   </si>
   <si>
+    <t>search with empty collection(load or not load)</t>
+  </si>
+  <si>
     <t>Int PK and binary vector search</t>
   </si>
   <si>
+    <t>search with different index</t>
+  </si>
+  <si>
     <t>String PK  and float vector search</t>
   </si>
   <si>
+    <t>search with other metrictype</t>
+  </si>
+  <si>
     <t>String PK and binary vector search</t>
   </si>
   <si>
+    <t>search with invalid expr/mix expr</t>
+  </si>
+  <si>
     <t>Int PK and float vector  hybrid search</t>
   </si>
   <si>
@@ -191,18 +206,33 @@
     <t>binary vector search using each inedx</t>
   </si>
   <si>
+    <t>Search with error expression</t>
+  </si>
+  <si>
+    <t>Search without load</t>
+  </si>
+  <si>
     <t>Query/QueryAsync</t>
   </si>
   <si>
     <t>Int PK and float vector  query</t>
   </si>
   <si>
+    <t>query with no pk field</t>
+  </si>
+  <si>
     <t>Int PK and binary vector query</t>
   </si>
   <si>
+    <t>query with invaild expr</t>
+  </si>
+  <si>
     <t>String PK  and float vector query</t>
   </si>
   <si>
+    <t>query output fields test</t>
+  </si>
+  <si>
     <t>String PK and binary vector query</t>
   </si>
   <si>
@@ -296,6 +326,12 @@
     <t>query with each expression</t>
   </si>
   <si>
+    <t>Query without PK field</t>
+  </si>
+  <si>
+    <t>Query with invaild expression</t>
+  </si>
+  <si>
     <t>CreateAlias</t>
   </si>
   <si>
@@ -392,15 +428,42 @@
     <t>field type COV</t>
   </si>
   <si>
+    <t>1. create field max</t>
+  </si>
+  <si>
     <t>Create String PK and binary vector collection</t>
   </si>
   <si>
+    <t>2. create collection name dup</t>
+  </si>
+  <si>
     <t>Create String PK collection without max length</t>
   </si>
   <si>
+    <t>3. create  invaild field or field params</t>
+  </si>
+  <si>
     <t>create field  type coverage</t>
   </si>
   <si>
+    <t>4. create muti PK field failed</t>
+  </si>
+  <si>
+    <t>Create collection with Max fields</t>
+  </si>
+  <si>
+    <t>5.create collection with muti-thread</t>
+  </si>
+  <si>
+    <t>Create collection with larger than Max fields</t>
+  </si>
+  <si>
+    <t>Create collection with multiple PK field</t>
+  </si>
+  <si>
+    <t>Create collection with multi-thread</t>
+  </si>
+  <si>
     <t>DescribeCollection</t>
   </si>
   <si>
@@ -434,9 +497,15 @@
     <t>Drop collection</t>
   </si>
   <si>
+    <t>1.drop invaild/empty collection name</t>
+  </si>
+  <si>
     <t xml:space="preserve">Drop nonexistent collection </t>
   </si>
   <si>
+    <t>2.drop collection without alias</t>
+  </si>
+  <si>
     <t>Search after drop collection</t>
   </si>
   <si>
@@ -449,6 +518,9 @@
     <t>describe collection after drop</t>
   </si>
   <si>
+    <t>Drop empty collection name</t>
+  </si>
+  <si>
     <t>GetCollectionStatistics</t>
   </si>
   <si>
@@ -467,6 +539,9 @@
     <t>Has collection</t>
   </si>
   <si>
+    <t>1.has invaild/empty collection name</t>
+  </si>
+  <si>
     <t>Has nonexistent collection</t>
   </si>
   <si>
@@ -476,6 +551,9 @@
     <t>Load collection sync</t>
   </si>
   <si>
+    <t>Lack of order between load collection and patition</t>
+  </si>
+  <si>
     <t>Load collection async</t>
   </si>
   <si>
@@ -485,6 +563,12 @@
     <t>N</t>
   </si>
   <si>
+    <t>Load collection after load partition</t>
+  </si>
+  <si>
+    <t>Load partition after load collection</t>
+  </si>
+  <si>
     <t>ReleaseCollection</t>
   </si>
   <si>
@@ -497,6 +581,9 @@
     <t>query after release collection</t>
   </si>
   <si>
+    <t>Release collection after load partition</t>
+  </si>
+  <si>
     <t>ShowCollection</t>
   </si>
   <si>
@@ -620,21 +707,42 @@
     <t>empty collection</t>
   </si>
   <si>
+    <t>1.create index parmas invaild</t>
+  </si>
+  <si>
     <t>Binary vector collection create  index sync</t>
   </si>
   <si>
+    <t>2.index name dup</t>
+  </si>
+  <si>
     <t>Float vector collection create  index async</t>
   </si>
   <si>
+    <t>3.create index only string field</t>
+  </si>
+  <si>
     <t>Binary vector collection create  index async</t>
   </si>
   <si>
+    <t>4. create muti index wirh different field</t>
+  </si>
+  <si>
     <t>create index with error metric type</t>
   </si>
   <si>
+    <t>5.create muti index same/different index name</t>
+  </si>
+  <si>
     <t>create index with nonexistent collection</t>
   </si>
   <si>
+    <t>6.create same index more times</t>
+  </si>
+  <si>
+    <t>。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Create index with scalar field </t>
   </si>
   <si>
@@ -653,6 +761,18 @@
     <t>Empty collection create index</t>
   </si>
   <si>
+    <t xml:space="preserve">Repeat create index </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create index with string scalar field </t>
+  </si>
+  <si>
+    <t>Create mutliple index with different field</t>
+  </si>
+  <si>
+    <t>Create mutliple index with same index name</t>
+  </si>
+  <si>
     <t>DescribeIndex</t>
   </si>
   <si>
@@ -716,6 +836,9 @@
     <t>Get indexs state with nonexistent collection</t>
   </si>
   <si>
+    <t>1.insert numpy/dataframe data</t>
+  </si>
+  <si>
     <t>Insert/InserAsync</t>
   </si>
   <si>
@@ -725,12 +848,21 @@
     <t>Date Type</t>
   </si>
   <si>
+    <t>2.insert field inconsistent numbers(less or more)</t>
+  </si>
+  <si>
     <t>Insert data into partition</t>
   </si>
   <si>
     <t>PK auto</t>
   </si>
   <si>
+    <t>3.insert Non-existent collection/partition</t>
+  </si>
+  <si>
+    <t>Multiple insert into String pk and binary vector Collection</t>
+  </si>
+  <si>
     <t>Insert data into collection not match  data type of vector field</t>
   </si>
   <si>
@@ -740,9 +872,15 @@
     <t>数量 类型 dim</t>
   </si>
   <si>
+    <t>4.insert with string pk，auto id false</t>
+  </si>
+  <si>
     <t>Insert data into collection not match  data type of primary key</t>
   </si>
   <si>
+    <t>5. insert max dim vector</t>
+  </si>
+  <si>
     <t>Insert data into collection not match data type of scalar field</t>
   </si>
   <si>
@@ -758,6 +896,12 @@
     <t>Insert data into each dim(small -middle-large)</t>
   </si>
   <si>
+    <t>insert field inconsistent numbers</t>
+  </si>
+  <si>
+    <t>insert field inconsistent dimension</t>
+  </si>
+  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -894,6 +1038,9 @@
   </si>
   <si>
     <t>release nonexistent partition</t>
+  </si>
+  <si>
+    <t>release partition after load collection</t>
   </si>
   <si>
     <t>ShowPartitions</t>
@@ -925,9 +1072,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -955,52 +1102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,23 +1117,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1045,24 +1163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,17 +1187,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1119,7 +1266,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,31 +1434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1167,139 +1446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,30 +1528,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1416,21 +1539,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,6 +1573,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1475,157 +1598,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1672,6 +1819,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2005,24 +2158,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:J263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E183" sqref="E183"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="31.8846153846154" customWidth="1"/>
+    <col min="1" max="1" width="25.3846153846154" customWidth="1"/>
     <col min="2" max="2" width="87.6538461538462" customWidth="1"/>
     <col min="3" max="3" width="17.7788461538462" customWidth="1"/>
     <col min="4" max="4" width="9.23076923076923" style="1"/>
-    <col min="5" max="5" width="30.4423076923077" customWidth="1"/>
-    <col min="7" max="7" width="20.6634615384615" customWidth="1"/>
+    <col min="5" max="5" width="9.48076923076923" customWidth="1"/>
+    <col min="6" max="6" width="2.21153846153846" customWidth="1"/>
+    <col min="7" max="7" width="17.3653846153846" customWidth="1"/>
+    <col min="8" max="8" width="4.43269230769231" customWidth="1"/>
+    <col min="9" max="9" width="33.7788461538462" customWidth="1"/>
+    <col min="10" max="10" width="16.1442307692308" customWidth="1"/>
     <col min="11" max="11" width="8.97115384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2038,3309 +2195,3667 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5"/>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="10"/>
       <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5"/>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="10"/>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5"/>
       <c r="B11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>13</v>
-      </c>
       <c r="D11" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5"/>
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" s="10"/>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" s="7"/>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5"/>
       <c r="B15" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E15" s="10"/>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" s="7"/>
       <c r="G16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5"/>
       <c r="B20" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="10"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5"/>
       <c r="B22" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5"/>
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5"/>
       <c r="B27" s="9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5"/>
       <c r="B29" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5"/>
       <c r="B31" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E31" s="10"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5"/>
       <c r="B33" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33" s="10"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5"/>
       <c r="B34" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5"/>
       <c r="B35" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35" s="10"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5"/>
       <c r="B37" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5"/>
       <c r="B38" s="6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5"/>
       <c r="B39" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5"/>
       <c r="B40" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5"/>
       <c r="B41" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5"/>
       <c r="B43" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5"/>
       <c r="B44" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5"/>
       <c r="B45" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5"/>
       <c r="B46" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="5"/>
       <c r="B48" s="6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="5"/>
       <c r="B49" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
+      <c r="B50" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
+      <c r="B51" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="7"/>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="5"/>
-      <c r="B53" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="1:5">
+    <row r="53" spans="1:9">
+      <c r="A53" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="I53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="5"/>
-      <c r="B54" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="B54" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="I54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="5"/>
-      <c r="B55" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="10"/>
+      <c r="B55" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="I55" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="5"/>
-      <c r="B56" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="7"/>
+      <c r="B56" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="5"/>
-      <c r="B57" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="B57" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="5"/>
-      <c r="B58" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" s="7"/>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
+      <c r="B58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="5"/>
-      <c r="B59" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="10"/>
+      <c r="B59" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="7"/>
       <c r="G59" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="5"/>
-      <c r="B60" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" s="7"/>
+      <c r="B60" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="10"/>
       <c r="G60" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="5"/>
-      <c r="B61" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" s="10"/>
+      <c r="B61" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="7"/>
       <c r="G61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="5"/>
-      <c r="B62" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="7"/>
+      <c r="B62" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="10"/>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="5"/>
-      <c r="B63" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="10"/>
+      <c r="B63" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="5"/>
-      <c r="B64" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="7"/>
+      <c r="B64" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="5"/>
-      <c r="B65" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="10"/>
+      <c r="B65" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="5"/>
-      <c r="B66" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="7"/>
+      <c r="B66" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5"/>
-      <c r="B67" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" s="10"/>
+      <c r="B67" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="5"/>
-      <c r="B68" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="7"/>
+      <c r="B68" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="5"/>
-      <c r="B69" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" s="10"/>
+      <c r="B69" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="5"/>
-      <c r="B70" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" s="7"/>
+      <c r="B70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="5"/>
-      <c r="B71" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="10"/>
+      <c r="B71" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="5"/>
-      <c r="B72" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" s="7"/>
+      <c r="B72" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="5"/>
       <c r="B73" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5"/>
-      <c r="B74" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" s="10"/>
+      <c r="B74" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="5"/>
-      <c r="B75" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" s="7"/>
+      <c r="B75" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="10"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="5"/>
-      <c r="B76" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" s="10"/>
+      <c r="B76" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="5"/>
-      <c r="B77" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="7"/>
+      <c r="B77" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="10"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="5"/>
-      <c r="B78" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="10"/>
+      <c r="B78" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="7"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="5"/>
-      <c r="B79" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="7"/>
+      <c r="B79" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="5"/>
       <c r="B80" s="13" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5"/>
       <c r="B81" s="13" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="5"/>
       <c r="B82" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5"/>
-      <c r="B83" s="7" t="s">
-        <v>92</v>
+      <c r="B83" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="14" t="s">
-        <v>93</v>
-      </c>
+      <c r="A84" s="5"/>
       <c r="B84" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="14"/>
-      <c r="B85" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" s="10"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="14"/>
+      <c r="A86" s="5"/>
       <c r="B86" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="14"/>
-      <c r="B87" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="10"/>
+      <c r="A87" s="5"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="14"/>
-      <c r="B88" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="14"/>
-      <c r="B89" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="10"/>
+      <c r="A89" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="14"/>
-      <c r="B90" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="7"/>
+      <c r="B90" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="10"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="10"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="5"/>
-      <c r="B92" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="7"/>
-      <c r="G92" t="s">
-        <v>104</v>
-      </c>
-      <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="5"/>
-      <c r="B93" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" s="10"/>
-      <c r="G93" t="s">
-        <v>106</v>
-      </c>
+      <c r="A91" s="14"/>
+      <c r="B91" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="14"/>
+      <c r="B92" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="14"/>
+      <c r="B93" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="5"/>
-      <c r="B94" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" s="7"/>
+      <c r="A94" s="14"/>
+      <c r="B94" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="10"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="5"/>
-      <c r="B95" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="10"/>
+      <c r="A95" s="14"/>
+      <c r="B95" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="5"/>
+      <c r="A96" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="B96" s="15" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E96" s="10"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:8">
       <c r="A97" s="5"/>
-      <c r="B97" s="15" t="s">
+      <c r="B97" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="G97" t="s">
+        <v>116</v>
+      </c>
+      <c r="H97" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="5"/>
+      <c r="B98" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" s="10"/>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="5"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="11"/>
+      <c r="C98" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E98" s="10"/>
+      <c r="G98" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B99" s="15" t="s">
+      <c r="A99" s="5"/>
+      <c r="B99" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="10"/>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="C99" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="5"/>
-      <c r="B100" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="7"/>
-      <c r="G100" t="s">
-        <v>106</v>
-      </c>
+      <c r="B100" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="10"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="5"/>
       <c r="B101" s="15" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E101" s="10"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="5"/>
-      <c r="B102" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" s="7"/>
+      <c r="B102" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E102" s="10"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="5"/>
-      <c r="B103" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="B103" s="15"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="11"/>
       <c r="E103" s="10"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="5"/>
+      <c r="A104" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="B104" s="15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E104" s="10"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:7">
       <c r="A105" s="5"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="10"/>
+      <c r="B105" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="7"/>
+      <c r="G105" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="5"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="11"/>
+      <c r="B106" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E106" s="10"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="10"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="5"/>
-      <c r="B108" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" s="7"/>
+      <c r="B108" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108" s="10"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="5"/>
       <c r="B109" s="15" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E109" s="10"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:5">
       <c r="A110" s="5"/>
-      <c r="B110" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" s="7"/>
-      <c r="G110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="B110" s="15"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="5"/>
-      <c r="B111" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>8</v>
-      </c>
+      <c r="B111" s="15"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="11"/>
       <c r="E111" s="10"/>
-      <c r="G111" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="5"/>
-      <c r="B112" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" s="7"/>
+      <c r="A112" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E112" s="10"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="5"/>
-      <c r="B113" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="10"/>
+      <c r="B113" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="5"/>
-      <c r="B114" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="7"/>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="B114" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="5"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="8"/>
+      <c r="B115" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="E115" s="7"/>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" s="7"/>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="G115" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="5"/>
+      <c r="B116" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="G116" t="s">
+        <v>136</v>
+      </c>
+      <c r="I116" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="5"/>
-      <c r="B117" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="10"/>
-      <c r="G117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="B117" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="I117" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="5"/>
-      <c r="B118" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="G118" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="B118" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="I118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="5"/>
-      <c r="B119" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" s="10"/>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="B119" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="I119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="5"/>
-      <c r="B120" s="13" t="s">
-        <v>134</v>
+      <c r="B120" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E120" s="7"/>
+      <c r="I120" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="5"/>
-      <c r="B121" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="10"/>
+      <c r="B121" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="5"/>
-      <c r="B122" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" s="10"/>
+      <c r="B122" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" s="7"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="10"/>
+      <c r="A123" s="5"/>
+      <c r="B123" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E123" s="7"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="5"/>
-      <c r="B124" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="8"/>
       <c r="E124" s="7"/>
     </row>
-    <row r="125" spans="1:7">
-      <c r="A125" s="5"/>
-      <c r="B125" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" s="10"/>
-      <c r="G125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+    <row r="125" spans="1:5">
+      <c r="A125" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="5"/>
-      <c r="B126" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" s="7"/>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="B126" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="G126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="5"/>
-      <c r="B127" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="10"/>
+      <c r="B127" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="G127" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="5"/>
-      <c r="B128" s="15" t="s">
-        <v>143</v>
+      <c r="B128" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E128" s="10"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B129" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="10"/>
+      <c r="A129" s="5"/>
+      <c r="B129" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="7"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="14"/>
-      <c r="B130" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" s="7"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="10"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="14"/>
-      <c r="B131" s="10" t="s">
-        <v>147</v>
+      <c r="A131" s="5"/>
+      <c r="B131" s="15" t="s">
+        <v>157</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E131" s="10"/>
     </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="7"/>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="14"/>
-      <c r="B133" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" s="10"/>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="7"/>
+    <row r="132" spans="1:9">
+      <c r="A132" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="I132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="5"/>
+      <c r="B133" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="I133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="5"/>
+      <c r="B134" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="G134" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="14"/>
-      <c r="B135" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" s="10"/>
+      <c r="A135" s="5"/>
+      <c r="B135" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="7"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="14"/>
-      <c r="B136" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D136" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E136" s="7"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="10"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>157</v>
+      <c r="A137" s="5"/>
+      <c r="B137" s="15" t="s">
+        <v>166</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E137" s="10"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="14"/>
-      <c r="B138" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="7"/>
+      <c r="A138" s="5"/>
+      <c r="B138" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="10"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="14"/>
+      <c r="A139" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="B139" s="10" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E139" s="10"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="14" t="s">
-        <v>160</v>
-      </c>
+      <c r="A140" s="14"/>
       <c r="B140" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="14" t="s">
-        <v>162</v>
-      </c>
+      <c r="A141" s="14"/>
       <c r="B141" s="10" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E141" s="10"/>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="14"/>
+    <row r="142" spans="1:9">
+      <c r="A142" s="14" t="s">
+        <v>172</v>
+      </c>
       <c r="B142" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E142" s="7"/>
+      <c r="I142" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="14" t="s">
-        <v>165</v>
-      </c>
+      <c r="A143" s="14"/>
       <c r="B143" s="10" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E143" s="10"/>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:9">
       <c r="A144" s="5" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B144" s="13" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E144" s="7"/>
-      <c r="G144" t="s">
-        <v>169</v>
+      <c r="I144" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="5"/>
       <c r="B145" s="15" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D145" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E145" s="10"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="5"/>
-      <c r="B146" t="s">
-        <v>171</v>
+      <c r="B146" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E146" s="7"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="5"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="8"/>
-      <c r="E147" s="7"/>
+      <c r="B147" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" s="10"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" s="7"/>
+      <c r="A148" s="5"/>
+      <c r="B148" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="10"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="14"/>
-      <c r="B149" s="10" t="s">
-        <v>174</v>
+      <c r="A149" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>185</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E149" s="10"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="14"/>
-      <c r="B150" s="7" t="s">
-        <v>175</v>
+      <c r="A150" s="5"/>
+      <c r="B150" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E150" s="7"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="14"/>
-      <c r="B151" s="10" t="s">
-        <v>176</v>
+      <c r="A151" s="5"/>
+      <c r="B151" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="14"/>
-      <c r="B152" s="7" t="s">
-        <v>177</v>
+      <c r="A152" s="5"/>
+      <c r="B152" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E152" s="7"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" s="10"/>
+        <v>189</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" s="7"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="14"/>
-      <c r="B154" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" s="7"/>
+      <c r="A154" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" s="10"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="14"/>
-      <c r="B155" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" s="10"/>
+      <c r="B155" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" s="7"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="14"/>
-      <c r="B156" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" s="7"/>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="14"/>
-      <c r="B157" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" s="10"/>
+      <c r="A156" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B157" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" s="7"/>
+      <c r="G157" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="7"/>
+      <c r="A158" s="5"/>
+      <c r="B158" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" s="10"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" s="10"/>
+      <c r="A159" s="5"/>
+      <c r="B159" t="s">
+        <v>200</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" s="7"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="14"/>
-      <c r="B160" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="A160" s="5"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="8"/>
       <c r="E160" s="7"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="14"/>
-      <c r="B161" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D161" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" s="10"/>
+      <c r="A161" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="7"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="14"/>
-      <c r="B162" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" s="7"/>
+      <c r="B162" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="10"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D163" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E163" s="10"/>
+      <c r="A163" s="14"/>
+      <c r="B163" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="14"/>
-      <c r="B164" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E164" s="7"/>
+      <c r="B164" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="10"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="14"/>
-      <c r="B165" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D165" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" s="10"/>
+      <c r="B165" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="7"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E166" s="7"/>
+        <v>207</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="10"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="14"/>
-      <c r="B167" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" s="10"/>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" s="7"/>
-      <c r="G168" t="s">
-        <v>200</v>
-      </c>
+      <c r="B167" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="7"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="14"/>
+      <c r="B168" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="10"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="5"/>
-      <c r="B169" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" s="10"/>
+      <c r="A169" s="14"/>
+      <c r="B169" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="7"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="5"/>
-      <c r="B170" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E170" s="7"/>
+      <c r="A170" s="14"/>
+      <c r="B170" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="10"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="5"/>
-      <c r="B171" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" s="10"/>
+      <c r="A171" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="7"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="5"/>
-      <c r="B172" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E172" s="7"/>
+      <c r="A172" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="10"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="5"/>
-      <c r="B173" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" s="10"/>
-    </row>
-    <row r="174" spans="1:7">
-      <c r="A174" s="5"/>
-      <c r="B174" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G174" t="s">
-        <v>208</v>
-      </c>
+      <c r="A173" s="14"/>
+      <c r="B173" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="7"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="14"/>
+      <c r="B174" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="10"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="5"/>
-      <c r="B175" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D175" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" s="10" t="s">
-        <v>210</v>
-      </c>
+      <c r="A175" s="14"/>
+      <c r="B175" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="5"/>
-      <c r="B176" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E176" s="7"/>
+      <c r="A176" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="10"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="14" t="s">
-        <v>212</v>
-      </c>
+      <c r="A177" s="14"/>
       <c r="B177" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E177" s="7"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="14"/>
       <c r="B178" s="10" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D178" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E178" s="10"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="14"/>
+      <c r="A179" s="14" t="s">
+        <v>224</v>
+      </c>
       <c r="B179" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E179" s="7"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="14"/>
       <c r="B180" s="10" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D180" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E180" s="10"/>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="14"/>
-      <c r="B181" s="7" t="s">
-        <v>217</v>
+    <row r="181" spans="1:9">
+      <c r="A181" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E181" s="7"/>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="14"/>
-      <c r="B182" s="10" t="s">
-        <v>218</v>
+      <c r="G181" t="s">
+        <v>229</v>
+      </c>
+      <c r="I181" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="5"/>
+      <c r="B182" s="15" t="s">
+        <v>231</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D182" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E182" s="10"/>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>220</v>
+      <c r="I182" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183" s="5"/>
+      <c r="B183" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E183" s="7"/>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="14"/>
-      <c r="B184" s="10" t="s">
-        <v>221</v>
+      <c r="I183" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="5"/>
+      <c r="B184" s="15" t="s">
+        <v>235</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D184" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E184" s="10"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="14"/>
-      <c r="B185" s="7" t="s">
-        <v>222</v>
+      <c r="I184" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="5"/>
+      <c r="B185" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E185" s="7"/>
-    </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="14"/>
-      <c r="B186" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E186" s="7"/>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="14"/>
-      <c r="B187" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" s="10"/>
+      <c r="I185" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" s="5"/>
+      <c r="B186" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="10"/>
+      <c r="I186" t="s">
+        <v>240</v>
+      </c>
+      <c r="J186" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="5"/>
+      <c r="B187" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G187" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E188" s="7"/>
+      <c r="A188" s="5"/>
+      <c r="B188" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="10" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="14"/>
-      <c r="B189" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D189" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E189" s="10"/>
+      <c r="A189" s="5"/>
+      <c r="B189" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="7"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="14"/>
-      <c r="B190" s="7" t="s">
-        <v>228</v>
+      <c r="A190" s="5"/>
+      <c r="B190" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E190" s="7"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="B191" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E191" s="10"/>
+      <c r="A191" s="5"/>
+      <c r="B191" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="7"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="14"/>
-      <c r="B192" s="7" t="s">
-        <v>231</v>
+      <c r="A192" s="5"/>
+      <c r="B192" s="17" t="s">
+        <v>250</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E192" s="7"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="14"/>
-      <c r="B193" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D193" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E193" s="10"/>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B194" s="13" t="s">
-        <v>234</v>
+      <c r="A193" s="5"/>
+      <c r="B193" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" s="7"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E194" s="7"/>
-      <c r="G194" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="5"/>
-      <c r="B195" s="15" t="s">
-        <v>236</v>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="14"/>
+      <c r="B195" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E195" s="10"/>
-      <c r="G195" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
-      <c r="A196" s="5"/>
-      <c r="B196" s="13" t="s">
-        <v>238</v>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="14"/>
+      <c r="B196" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E196" s="7"/>
-      <c r="G196" t="s">
-        <v>239</v>
-      </c>
-      <c r="H196" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="5"/>
-      <c r="B197" s="15" t="s">
-        <v>241</v>
+      <c r="A197" s="14"/>
+      <c r="B197" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D197" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E197" s="10"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="5"/>
-      <c r="B198" s="13" t="s">
-        <v>242</v>
+      <c r="A198" s="14"/>
+      <c r="B198" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E198" s="7"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="5"/>
-      <c r="B199" s="13" t="s">
-        <v>243</v>
+      <c r="A199" s="14"/>
+      <c r="B199" s="10" t="s">
+        <v>258</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E199" s="10"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="5"/>
-      <c r="B200" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C200" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D200" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E200" s="10"/>
+      <c r="A200" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="7"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="5"/>
-      <c r="B201" s="15" t="s">
-        <v>245</v>
+      <c r="A201" s="14"/>
+      <c r="B201" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="E201" s="10"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="5"/>
-      <c r="B202" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C202" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D202" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E202" s="10"/>
+      <c r="A202" s="14"/>
+      <c r="B202" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="5"/>
-      <c r="B203" s="15"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="11"/>
-      <c r="E203" s="10"/>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="14" t="s">
-        <v>247</v>
-      </c>
+      <c r="A203" s="14"/>
+      <c r="B203" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="7"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="14"/>
       <c r="B204" s="10" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E204" s="10"/>
-      <c r="G204" t="s">
-        <v>249</v>
-      </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="14"/>
+      <c r="A205" s="14" t="s">
+        <v>265</v>
+      </c>
       <c r="B205" s="7" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E205" s="7"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="14"/>
       <c r="B206" s="10" t="s">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D206" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E206" s="10"/>
     </row>
-    <row r="207" spans="1:6">
-      <c r="A207" s="14" t="s">
-        <v>252</v>
-      </c>
+    <row r="207" spans="1:5">
+      <c r="A207" s="14"/>
       <c r="B207" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E207" s="7"/>
-      <c r="F207" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208" s="14"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="14" t="s">
+        <v>269</v>
+      </c>
       <c r="B208" s="10" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D208" s="11" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="E208" s="10"/>
-      <c r="F208" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+    </row>
+    <row r="209" spans="1:5">
       <c r="A209" s="14"/>
       <c r="B209" s="7" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="E209" s="7"/>
-      <c r="F209" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="14"/>
       <c r="B210" s="10" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="E210" s="10"/>
-      <c r="F210" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>258</v>
+      <c r="I210" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B211" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E211" s="7"/>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="14"/>
-      <c r="B212" s="10" t="s">
-        <v>259</v>
+      <c r="G211" t="s">
+        <v>276</v>
+      </c>
+      <c r="I211" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="5"/>
+      <c r="B212" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D212" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E212" s="10"/>
+      <c r="G212" t="s">
+        <v>279</v>
+      </c>
+      <c r="I212" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E213" s="7"/>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="B214" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C214" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D214" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="E214" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D215" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E215" s="7"/>
+      <c r="A213" s="5"/>
+      <c r="B213" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="10"/>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214" s="5"/>
+      <c r="B214" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="7"/>
+      <c r="G214" t="s">
+        <v>283</v>
+      </c>
+      <c r="H214" t="s">
+        <v>284</v>
+      </c>
+      <c r="I214" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="5"/>
+      <c r="B215" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="10"/>
+      <c r="I215" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="14"/>
-      <c r="B216" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="C216" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D216" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E216" s="10"/>
+      <c r="A216" s="5"/>
+      <c r="B216" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" s="7"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="14"/>
-      <c r="B217" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D217" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E217" s="7"/>
+      <c r="A217" s="5"/>
+      <c r="B217" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" s="10"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>270</v>
+      <c r="A218" s="5"/>
+      <c r="B218" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D218" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E218" s="10"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="14"/>
-      <c r="B219" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D219" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E219" s="7"/>
+      <c r="A219" s="5"/>
+      <c r="B219" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C219" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E219" s="10"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="14"/>
-      <c r="B220" s="10" t="s">
-        <v>272</v>
+      <c r="A220" s="5"/>
+      <c r="B220" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D220" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E220" s="10"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="14"/>
-      <c r="B221" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D221" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E221" s="7"/>
+      <c r="A221" s="5"/>
+      <c r="B221" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" s="10"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="14"/>
-      <c r="B222" s="10" t="s">
-        <v>274</v>
+      <c r="A222" s="5"/>
+      <c r="B222" s="16" t="s">
+        <v>294</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D222" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E222" s="10"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="14"/>
-      <c r="B223" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E223" s="7"/>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="14"/>
+      <c r="A223" s="5"/>
+      <c r="B223" s="16"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="11"/>
+      <c r="E223" s="10"/>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="14" t="s">
+        <v>295</v>
+      </c>
       <c r="B224" s="10" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D224" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E224" s="10"/>
+      <c r="G224" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="14"/>
       <c r="B225" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E225" s="7"/>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="14" t="s">
-        <v>278</v>
-      </c>
+      <c r="A226" s="14"/>
       <c r="B226" s="10" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C226" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D226" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E226" s="10"/>
     </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="14"/>
+    <row r="227" spans="1:6">
+      <c r="A227" s="14" t="s">
+        <v>300</v>
+      </c>
       <c r="B227" s="7" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E227" s="7"/>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="14" t="s">
-        <v>281</v>
-      </c>
+      <c r="F227" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="14"/>
       <c r="B228" s="10" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D228" s="11" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E228" s="10"/>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="14"/>
       <c r="B229" s="7" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E229" s="7"/>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="14" t="s">
-        <v>284</v>
-      </c>
+      <c r="F229" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="14"/>
       <c r="B230" s="10" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E230" s="10"/>
+      <c r="F230" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="14"/>
+      <c r="A231" s="14" t="s">
+        <v>305</v>
+      </c>
       <c r="B231" s="7" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E231" s="7"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="14"/>
       <c r="B232" s="10" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D232" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E232" s="10"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="14"/>
+      <c r="A233" s="14" t="s">
+        <v>308</v>
+      </c>
       <c r="B233" s="7" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E233" s="7"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="14" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D234" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E234" s="10"/>
+        <v>181</v>
+      </c>
+      <c r="E234" s="10" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="14"/>
+      <c r="A235" s="14" t="s">
+        <v>313</v>
+      </c>
       <c r="B235" s="7" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E235" s="7"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="14"/>
       <c r="B236" s="10" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D236" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E236" s="10"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="14" t="s">
-        <v>293</v>
-      </c>
+      <c r="A237" s="14"/>
       <c r="B237" s="7" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E237" s="7"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="14" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D238" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E238" s="10"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="14"/>
       <c r="B239" s="7" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E239" s="7"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="14" t="s">
-        <v>298</v>
-      </c>
+      <c r="A240" s="14"/>
       <c r="B240" s="10" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D240" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E240" s="10"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="14"/>
       <c r="B241" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E241" s="7"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="16"/>
-      <c r="B242" s="17"/>
-      <c r="C242" s="17"/>
-      <c r="D242" s="18"/>
-      <c r="E242" s="19"/>
+      <c r="A242" s="14"/>
+      <c r="B242" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="C242" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E242" s="10"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="14"/>
+      <c r="B243" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243" s="7"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="14"/>
+      <c r="B244" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C244" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E244" s="10"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="14"/>
+      <c r="B245" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" s="7"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="C246" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D246" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E246" s="10"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="14"/>
+      <c r="B247" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247" s="7"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B248" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C248" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" s="10"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="14"/>
+      <c r="B249" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" s="7"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B250" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" s="10"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="14"/>
+      <c r="B251" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" s="7"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="14"/>
+      <c r="B252" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E252" s="10"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="14"/>
+      <c r="B253" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E253" s="7"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B254" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254" s="10"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="5"/>
+      <c r="B255" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255" s="7"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="5"/>
+      <c r="B256" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C256" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" s="10"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="5"/>
+      <c r="B257" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" s="7"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E258" s="7"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="C259" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" s="10"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="14"/>
+      <c r="B260" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" s="7"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="C261" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" s="10"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="14"/>
+      <c r="B262" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" s="7"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="18"/>
+      <c r="B263" s="19"/>
+      <c r="C263" s="19"/>
+      <c r="D263" s="20"/>
+      <c r="E263" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A2:A51"/>
-    <mergeCell ref="A52:A83"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="A99:A106"/>
-    <mergeCell ref="A107:A115"/>
-    <mergeCell ref="A116:A122"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="A129:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A144:A147"/>
-    <mergeCell ref="A148:A152"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A159:A162"/>
-    <mergeCell ref="A163:A165"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="A177:A182"/>
-    <mergeCell ref="A183:A187"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="A194:A203"/>
-    <mergeCell ref="A204:A206"/>
-    <mergeCell ref="A207:A210"/>
-    <mergeCell ref="A211:A212"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="A218:A225"/>
-    <mergeCell ref="A226:A227"/>
-    <mergeCell ref="A228:A229"/>
-    <mergeCell ref="A230:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A2:A52"/>
+    <mergeCell ref="A53:A88"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A96:A103"/>
+    <mergeCell ref="A104:A111"/>
+    <mergeCell ref="A112:A124"/>
+    <mergeCell ref="A125:A131"/>
+    <mergeCell ref="A132:A138"/>
+    <mergeCell ref="A139:A141"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A161:A165"/>
+    <mergeCell ref="A166:A170"/>
+    <mergeCell ref="A172:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A181:A193"/>
+    <mergeCell ref="A194:A199"/>
+    <mergeCell ref="A200:A204"/>
+    <mergeCell ref="A205:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A223"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="A227:A230"/>
+    <mergeCell ref="A231:A232"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="A238:A245"/>
+    <mergeCell ref="A246:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:A253"/>
+    <mergeCell ref="A254:A257"/>
+    <mergeCell ref="A259:A260"/>
+    <mergeCell ref="A261:A262"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C19 C20 C43 C44 C45 C72 C73 C74 C75 C92 C114 C115 C121 C122 C169 C170 C171 C172 C173 C174 C175 C176 C180 C181 C182 C208 C217 C236 C1:C4 C6:C9 C11:C18 C21:C24 C25:C30 C31:C34 C35:C36 C37:C42 C46:C51 C52:C59 C60:C71 C76:C78 C79:C83 C84:C91 C93:C94 C95:C98 C99:C102 C103:C106 C107:C113 C116:C120 C123:C126 C127:C128 C129:C145 C146:C147 C148:C168 C177:C179 C183:C185 C186:C195 C196:C198 C199:C203 C204:C207 C209:C216 C218:C221 C222:C223 C224:C225 C226:C235 C237:C1048576">
-      <formula1>"block,critical,normal,minio"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
       <formula1>"block,critical,normal,minor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D19 D20 D43 D44 D45 D72 D73 D74 D75 D92 D114 D115 D121 D122 D169 D170 D171 D172 D173 D174 D175 D176 D181 D208 D217 D236 D2:D18 D21:D24 D25:D30 D31:D34 D35:D36 D37:D42 D46:D51 D52:D65 D66:D67 D68:D71 D76:D78 D79:D83 D84:D91 D93:D94 D95:D98 D99:D102 D103:D106 D107:D113 D116:D120 D123:D126 D127:D128 D129:D139 D140:D145 D146:D147 D148:D168 D177:D180 D182:D185 D186:D195 D196:D198 D199:D203 D204:D207 D209:D216 D218:D221 D222:D223 D224:D225 D226:D235 D237:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C19 C20 C43 C44 C45 C52 C73 C74 C75 C76 C97 C119 C120 C121 C122 C130 C131 C138 C152 C182 C183 C184 C185 C186 C187 C188 C189 C190 C191 C197 C198 C199 C213 C222 C223 C228 C237 C256 C257 C1:C4 C6:C9 C11:C18 C21:C24 C25:C30 C31:C34 C35:C36 C37:C42 C46:C51 C53:C60 C61:C72 C77:C79 C80:C84 C85:C88 C89:C96 C98:C99 C100:C103 C104:C107 C108:C111 C112:C118 C123:C124 C125:C129 C132:C135 C136:C137 C139:C146 C147:C148 C149:C151 C153:C158 C159:C160 C161:C181 C192:C193 C194:C196 C200:C202 C203:C212 C214:C216 C217:C221 C224:C227 C229:C236 C238:C241 C242:C243 C244:C245 C246:C255 C258:C1048576">
+      <formula1>"block,critical,normal,minio"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D19 D20 D43 D44 D45 D52 D73 D74 D75 D76 D97 D119 D120 D121 D122 D130 D131 D138 D152 D182 D183 D184 D185 D186 D187 D188 D189 D190 D191 D198 D213 D222 D223 D228 D237 D256 D257 D2:D18 D21:D24 D25:D30 D31:D34 D35:D36 D37:D42 D46:D51 D53:D66 D67:D68 D69:D72 D77:D79 D80:D84 D85:D88 D89:D96 D98:D99 D100:D103 D104:D107 D108:D111 D112:D118 D123:D124 D125:D129 D132:D135 D136:D137 D139:D146 D147:D148 D149:D151 D153:D158 D159:D160 D161:D181 D192:D193 D194:D197 D199:D202 D203:D212 D214:D216 D217:D221 D224:D227 D229:D236 D238:D241 D242:D243 D244:D245 D246:D255 D258:D1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
